--- a/src/main/resources/2.2.data.xlsx
+++ b/src/main/resources/2.2.data.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,7 +983,7 @@
       <c r="B3" s="14"/>
       <c r="C3" s="8"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="18" t="s">
         <v>52</v>
       </c>
@@ -994,19 +994,6 @@
       <c r="K3" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>$E3="Pass"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
-      <formula>$E3="Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
